--- a/stream/LYV PILOT LINE-MACHINE AND LEADER_LIST FOR DOWNTIME APP.xlsx
+++ b/stream/LYV PILOT LINE-MACHINE AND LEADER_LIST FOR DOWNTIME APP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7650"/>
+    <workbookView windowWidth="22188" windowHeight="9144" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LYV" sheetId="1" r:id="rId1"/>
@@ -2158,11 +2158,11 @@
   <sheetPr/>
   <dimension ref="B2:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="10"/>
     <col min="2" max="2" width="22.125" style="10" customWidth="1"/>
@@ -2174,7 +2174,7 @@
     <col min="8" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" ht="22.5" spans="2:7">
+    <row r="2" ht="22.8" spans="2:7">
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
@@ -2184,7 +2184,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" ht="16.5"/>
+    <row r="3" ht="16.35"/>
     <row r="4" ht="42.75" spans="2:7">
       <c r="B4" s="12" t="s">
         <v>1</v>
@@ -2205,7 +2205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="2:7">
+    <row r="5" ht="16.35" spans="2:7">
       <c r="B5" s="18" t="s">
         <v>7</v>
       </c>
@@ -3545,7 +3545,7 @@
       </c>
       <c r="G97" s="33"/>
     </row>
-    <row r="98" ht="16.5" spans="2:7">
+    <row r="98" ht="16.35" spans="2:7">
       <c r="B98" s="31"/>
       <c r="C98" s="21">
         <v>93</v>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="G119" s="41"/>
     </row>
-    <row r="120" ht="16.5" spans="2:7">
+    <row r="120" ht="16.35" spans="2:7">
       <c r="B120" s="42"/>
       <c r="C120" s="43">
         <v>22</v>
@@ -3933,11 +3933,11 @@
   <sheetPr/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.625" style="2" customWidth="1"/>
